--- a/src/test/resources/testdata/OpenCartAppTestData.xlsx
+++ b/src/test/resources/testdata/OpenCartAppTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A016B73B-7A03-4FA5-A8EB-5A799F0789E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6B23E495-3C40-4CA2-A146-8319A5738743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9D9A708B-C865-496E-A791-0B89B828EF9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9D9A708B-C865-496E-A791-0B89B828EF9B}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,10 @@
     <sheet name="productselectdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T8"/>
+  <oleSize ref="A1:R16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -566,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C779B7-DBA4-412E-B60B-A8EB4B031D9C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E5406B-761D-474B-8F64-D37226263F0E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
